--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -44,7 +44,55 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:42 PM</t>
+    <t xml:space="preserve">METFORMIN  XR 1000  30TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>ROSITOR 20MG 14 F.C.TAB</t>
+  </si>
+  <si>
+    <t>SIDERAL ACTIVE 15 ORODISPERSIBLE STICKS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 16 August, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +302,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +314,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +722,169 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>20</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>25</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>296</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>29</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +898,25 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -92,7 +92,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:43 PM</t>
+    <t>Saturday, 16 August, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -44,12 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">METFORMIN  XR 1000  30TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -59,18 +98,12 @@
     <t>84.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -92,7 +125,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 8:47 PM</t>
+    <t>Saturday, 16 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -772,15 +805,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -792,28 +825,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -825,66 +858,165 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>296</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>28</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>18</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>31</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>35</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>409.80000000000001</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>39</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>40</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -913,10 +1045,25 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:02 PM</t>
+    <t>Saturday, 16 August, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -65,27 +65,39 @@
     <t>AUGRAM 1GM 14 TABS</t>
   </si>
   <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">METFORMIN  XR 1000  30TAB</t>
   </si>
   <si>
@@ -116,16 +128,22 @@
     <t>SIDERAL ACTIVE 15 ORODISPERSIBLE STICKS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
     <t>120.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:09 PM</t>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 16 August, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -799,7 +817,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -809,11 +827,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -825,14 +843,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -842,11 +860,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -858,31 +876,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -898,13 +916,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -915,7 +933,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -931,7 +949,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -941,14 +959,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -957,14 +975,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -974,49 +992,115 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>409.80000000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>38</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>25</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>39</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>40</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>25</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>42</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>655.79999999999995</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>44</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>45</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>46</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1060,10 +1144,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ROSITOR 20MG 14 F.C.TAB</t>
   </si>
   <si>
@@ -143,7 +155,7 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:16 PM</t>
+    <t>Saturday, 16 August, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -982,7 +994,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -992,14 +1004,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1008,14 +1020,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1025,11 +1037,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>28</v>
@@ -1041,7 +1053,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1058,49 +1070,82 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>655.79999999999995</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>44</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>45</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>25</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>46</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>672.63</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>49</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1154,10 +1199,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -155,7 +155,7 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:18 PM</t>
+    <t>Saturday, 16 August, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -98,12 +110,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t xml:space="preserve">MELASONOZ   SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">METFORMIN  XR 1000  30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -122,6 +140,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -155,7 +185,19 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:25 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 16 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -912,7 +954,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -921,31 +963,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -961,24 +1003,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -987,31 +1029,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1020,14 +1062,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1037,14 +1079,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1053,14 +1095,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1070,14 +1112,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1086,14 +1128,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1103,49 +1145,181 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>672.63</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
-        <v>49</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
-        <v>50</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>32</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>41</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>29</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>53</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>29</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>56</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>59</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>34</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>816.37</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>62</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>63</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>64</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1204,10 +1378,30 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:38 PM</t>
+    <t>Saturday, 16 August, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -105,9 +117,6 @@
   </si>
   <si>
     <t>192.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t xml:space="preserve">MELASONOZ   SYRUP</t>
@@ -855,7 +864,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -864,14 +873,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -888,7 +897,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -897,14 +906,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -921,7 +930,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -954,7 +963,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -987,7 +996,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -996,31 +1005,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1036,24 +1045,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1069,24 +1078,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1095,14 +1104,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1112,14 +1121,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1128,14 +1137,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1145,14 +1154,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1161,14 +1170,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1178,14 +1187,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1194,14 +1203,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1211,14 +1220,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1234,7 +1243,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1251,7 +1260,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1267,59 +1276,92 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>61</v>
       </c>
-      <c t="s" r="Q20" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>816.37</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>62</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>37</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>63</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>924.37</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>65</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>66</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>67</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1398,10 +1440,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -206,7 +206,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:39 PM</t>
+    <t>Saturday, 16 August, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>120.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
   </si>
   <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
@@ -1276,7 +1285,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1293,7 +1302,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1309,59 +1318,92 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>924.37</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>64</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>65</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>37</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>66</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>67</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>986.37</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>68</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>70</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1445,10 +1487,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:41 PM</t>
+    <t>Saturday, 16 August, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MELASONOZ   SYRUP</t>
   </si>
   <si>
@@ -152,21 +161,18 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>115.0000</t>
   </si>
   <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -183,6 +189,18 @@
   </si>
   <si>
     <t>120.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
@@ -1060,11 +1078,11 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1087,17 +1105,17 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1120,21 +1138,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1146,14 +1164,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1163,14 +1181,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,14 +1197,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1196,14 +1214,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,14 +1230,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1229,14 +1247,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1245,14 +1263,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1262,11 +1280,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1278,14 +1296,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1295,14 +1313,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1311,7 +1329,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1328,11 +1346,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1344,66 +1362,165 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>986.37</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>46</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>65</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>67</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>33</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>68</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>69</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>70</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>71</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>40</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>72</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>74</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>75</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>76</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1492,10 +1609,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -107,6 +119,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -149,9 +173,6 @@
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -233,7 +254,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:44 PM</t>
+    <t>Saturday, 16 August, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -990,7 +1011,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1056,7 +1077,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1072,7 +1093,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1082,14 +1103,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1098,28 +1119,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1131,28 +1152,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1164,28 +1185,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1197,20 +1218,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1221,7 +1242,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1237,7 +1258,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1254,7 +1275,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1270,7 +1291,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1280,14 +1301,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1296,14 +1317,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1313,14 +1334,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1329,14 +1350,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1346,11 +1367,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1362,14 +1383,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1379,11 +1400,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1395,14 +1416,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1412,14 +1433,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1428,14 +1449,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1445,11 +1466,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1461,20 +1482,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1485,42 +1506,108 @@
         <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>74</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>41</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>75</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1190.3699999999999</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>74</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>75</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>76</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>77</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>78</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>48</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>79</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1334.4100000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>81</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>82</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>83</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1624,10 +1711,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -254,7 +254,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:46 PM</t>
+    <t>Saturday, 16 August, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -242,6 +260,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8391:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -254,7 +284,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 9:52 PM</t>
+    <t>Saturday, 16 August, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1060,7 +1090,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1070,14 +1100,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1086,14 +1116,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1103,14 +1133,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1119,14 +1149,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1136,14 +1166,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1152,14 +1182,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1192,17 +1222,17 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1225,17 +1255,17 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1258,13 +1288,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1291,7 +1321,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1301,14 +1331,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1317,14 +1347,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1341,7 +1371,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1357,7 +1387,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1367,14 +1397,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1383,14 +1413,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1400,11 +1430,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1423,7 +1453,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1456,7 +1486,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1466,11 +1496,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1482,14 +1512,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1499,14 +1529,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1522,7 +1552,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1555,59 +1585,158 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>80</v>
       </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1334.4100000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>44</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>81</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>82</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>83</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>84</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>85</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>87</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>88</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>51</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>89</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1454.4100000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>91</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>92</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>93</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1721,10 +1850,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -284,7 +284,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:00 PM</t>
+    <t>Saturday, 16 August, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -284,7 +293,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:02 PM</t>
+    <t>Saturday, 16 August, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1156,7 +1165,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1166,14 +1175,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1182,14 +1191,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1199,14 +1208,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1215,14 +1224,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1255,17 +1264,17 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1288,17 +1297,17 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1321,13 +1330,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1354,7 +1363,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,14 +1373,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1404,7 +1413,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1420,7 +1429,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1463,11 +1472,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1486,7 +1495,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1519,7 +1528,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,11 +1538,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1545,7 +1554,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1562,11 +1571,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1585,7 +1594,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1602,7 +1611,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1618,7 +1627,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1635,7 +1644,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1661,11 +1670,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1677,66 +1686,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>90</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1454.4100000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>91</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>54</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>92</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>93</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1610.4100000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>94</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>95</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>96</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1865,10 +1907,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -293,7 +293,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:03 PM</t>
+    <t>Saturday, 16 August, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -128,6 +140,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -149,6 +170,15 @@
     <t>95.0400</t>
   </si>
   <si>
+    <t>EXAMIDE 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -161,6 +191,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>KAST 10MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -191,18 +230,12 @@
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -293,7 +326,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:05 PM</t>
+    <t>Saturday, 16 August, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1099,7 +1132,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1109,14 +1142,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1125,14 +1158,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1149,7 +1182,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1165,7 +1198,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1175,14 +1208,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1191,14 +1224,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1208,14 +1241,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1231,7 +1264,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1241,11 +1274,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1257,14 +1290,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1281,7 +1314,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1297,24 +1330,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1330,21 +1363,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1356,14 +1389,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1373,11 +1406,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1389,14 +1422,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1413,7 +1446,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1429,24 +1462,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1462,21 +1495,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1488,14 +1521,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1505,11 +1538,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1521,14 +1554,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1538,14 +1571,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1554,14 +1587,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1571,14 +1604,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,7 +1620,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1604,11 +1637,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1620,14 +1653,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1637,14 +1670,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1653,14 +1686,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1670,11 +1703,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1686,14 +1719,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1703,11 +1736,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1719,66 +1752,198 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>91</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>50</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>92</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>93</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1610.4100000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c t="s" r="Q32" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>94</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>57</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>95</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>96</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>97</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>98</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>99</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>101</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>102</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>67</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>103</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1733.9200000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>105</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>106</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>107</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1912,10 +2077,30 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -143,12 +152,15 @@
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>46.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -179,18 +191,21 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
     <t>KAST 10MG 10 F.C. TAB</t>
   </si>
   <si>
@@ -230,9 +245,6 @@
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -314,6 +326,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>شامبو مينك 700 مل</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -326,7 +347,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:08 PM</t>
+    <t>Saturday, 16 August, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1132,7 +1153,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1142,14 +1163,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1158,14 +1179,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1182,7 +1203,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1198,7 +1219,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1208,14 +1229,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1224,14 +1245,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1241,11 +1262,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1264,7 +1285,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1274,11 +1295,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1290,14 +1311,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1314,7 +1335,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1330,7 +1351,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1340,14 +1361,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1356,14 +1377,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1380,7 +1401,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1396,7 +1417,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1413,7 +1434,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1429,7 +1450,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1439,11 +1460,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1455,28 +1476,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1488,28 +1509,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1521,24 +1542,24 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1561,13 +1582,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1578,7 +1599,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1594,7 +1615,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1604,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1620,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1637,14 +1658,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1660,7 +1681,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1677,7 +1698,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1693,7 +1714,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1703,11 +1724,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1719,14 +1740,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1736,11 +1757,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1759,7 +1780,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1792,7 +1813,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1802,14 +1823,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1818,14 +1839,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1835,11 +1856,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1851,14 +1872,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1868,14 +1889,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1884,66 +1905,165 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>101</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>102</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>103</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>104</v>
       </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1733.9200000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>105</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>72</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>106</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>107</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>108</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>109</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>72</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>110</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>2103.9200000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>112</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>113</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>114</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2097,10 +2217,25 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:11 PM</t>
+    <t>Saturday, 16 August, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -206,6 +218,15 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>KAST 10MG 10 F.C. TAB</t>
   </si>
   <si>
@@ -263,6 +284,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>56.4000</t>
+  </si>
+  <si>
     <t>ROSITOR 20MG 14 F.C.TAB</t>
   </si>
   <si>
@@ -335,6 +368,12 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -347,7 +386,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:15 PM</t>
+    <t>Saturday, 16 August, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1417,7 +1456,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1466,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1443,14 +1482,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,14 +1499,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1476,14 +1515,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1493,11 +1532,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1509,14 +1548,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,14 +1565,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1542,28 +1581,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1575,28 +1614,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1608,28 +1647,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1641,31 +1680,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,14 +1713,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,14 +1730,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,14 +1746,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1724,14 +1763,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,14 +1779,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,14 +1796,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,14 +1812,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,14 +1829,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,7 +1845,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1839,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,11 +1895,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1872,14 +1911,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1889,14 +1928,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,14 +1944,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1922,11 +1961,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1938,14 +1977,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1955,11 +1994,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1971,31 +2010,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2004,20 +2043,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2032,38 +2071,170 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>2103.9200000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>112</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>113</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>13</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>114</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>116</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>79</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>117</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>119</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>120</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>79</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>62</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>121</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>122</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>79</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>123</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2294.8200000000002</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>125</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>126</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>127</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2232,10 +2403,30 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>56.4000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
   </si>
   <si>
     <t>ROSITOR 20MG 14 F.C.TAB</t>
@@ -1852,7 +1864,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,11 +1907,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1911,7 +1923,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1928,11 +1940,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1944,14 +1956,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1961,11 +1973,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1977,7 +1989,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1994,11 +2006,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2027,14 +2039,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2116,21 +2128,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2142,14 +2154,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2159,11 +2171,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2192,49 +2204,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2294.8200000000002</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>125</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>126</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>79</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>127</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2308.6799999999998</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>129</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>130</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>131</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2423,10 +2468,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:31 PM</t>
+    <t>Saturday, 16 August, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -299,9 +299,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>1:5</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -398,7 +395,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:32 PM</t>
+    <t>Saturday, 16 August, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1864,7 +1861,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,11 +1871,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>36</v>
@@ -1890,7 +1887,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1923,7 +1920,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1940,11 +1937,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1956,7 +1953,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1973,11 +1970,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1989,7 +1986,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2022,7 +2019,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2039,11 +2036,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2055,7 +2052,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2072,11 +2069,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2088,7 +2085,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2105,11 +2102,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2121,14 +2118,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2138,11 +2135,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2154,7 +2151,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2171,11 +2168,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2187,14 +2184,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2220,14 +2217,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2237,11 +2234,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c t="s" r="A45" s="14">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2263,13 +2260,13 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c t="s" r="G45" s="15">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="16"/>
       <c t="s" r="K45" s="17">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -203,6 +215,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -284,6 +305,9 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PENTAMIX SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -395,7 +419,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:33 PM</t>
+    <t>Saturday, 16 August, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1317,7 +1341,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1350,7 +1374,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1366,7 +1390,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1376,11 +1400,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1392,14 +1416,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1416,7 +1440,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1432,7 +1456,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,14 +1466,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1458,14 +1482,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1482,7 +1506,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1498,7 +1522,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1508,14 +1532,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1548,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,11 +1565,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1557,14 +1581,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1574,11 +1598,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1590,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1607,11 +1631,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1623,14 +1647,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,28 +1680,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1689,28 +1713,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1722,28 +1746,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1755,31 +1779,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1829,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,14 +1845,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1845,7 +1869,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1861,7 +1885,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1878,7 +1902,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1894,7 +1918,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,11 +1928,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1927,7 +1951,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,14 +1961,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,14 +1977,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,14 +1994,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,7 +2010,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2003,11 +2027,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2036,11 +2060,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2102,11 +2126,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2135,11 +2159,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2151,31 +2175,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2184,28 +2208,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2217,66 +2241,165 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>127</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2308.6799999999998</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>12</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>86</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>128</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>129</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>130</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>131</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>86</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>66</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>132</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>133</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>86</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>134</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2422.6799999999998</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>136</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>137</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>138</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2470,10 +2593,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -419,7 +419,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:36 PM</t>
+    <t>Saturday, 16 August, 2025 10:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -215,6 +215,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -353,6 +359,18 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
@@ -371,6 +389,9 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE.OINT. 5 GM</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -392,6 +413,27 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>شامبو مينك 700 مل</t>
   </si>
   <si>
@@ -410,16 +452,10 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:42 PM</t>
+    <t>Saturday, 16 August, 2025 10:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1555,7 +1591,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1569,7 +1605,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1581,14 +1617,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1598,14 +1634,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1614,14 +1650,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1631,14 +1667,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1654,7 +1690,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1664,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1680,14 +1716,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1697,14 +1733,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1713,14 +1749,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1730,11 +1766,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1746,28 +1782,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1779,28 +1815,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1812,28 +1848,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1845,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1878,7 +1914,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1895,14 +1931,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,14 +1964,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1944,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1977,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1994,11 +2030,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>36</v>
@@ -2010,14 +2046,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,14 +2063,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2043,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2060,11 +2096,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2076,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,11 +2129,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2109,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2126,11 +2162,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2142,7 +2178,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2159,11 +2195,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2175,14 +2211,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2192,14 +2228,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2215,7 +2251,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2248,7 +2284,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2258,14 +2294,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2274,28 +2310,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2307,28 +2343,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2340,66 +2376,231 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>134</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
         <v>135</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2422.6799999999998</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>88</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>136</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>137</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>138</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>77</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>88</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>132</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>141</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>12</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>88</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>142</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>144</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>145</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>88</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>66</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>146</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>140</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>88</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>117</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2777.6799999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>148</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>149</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>150</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2608,10 +2809,35 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -182,6 +182,27 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -239,12 +260,18 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -284,9 +311,6 @@
     <t xml:space="preserve">METFORMIN  XR 1000  30TAB</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
     <t>84.0000</t>
   </si>
   <si>
@@ -374,12 +398,6 @@
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -455,7 +473,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:54 PM</t>
+    <t>Saturday, 16 August, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1509,7 +1527,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1525,7 +1543,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1575,7 +1593,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1591,7 +1609,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1605,10 +1623,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1634,11 +1652,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1683,14 +1701,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1700,11 +1718,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1733,11 +1751,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1799,11 +1817,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1822,24 +1840,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1855,13 +1873,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1898,11 +1916,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1914,31 +1932,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,31 +1965,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,14 +1998,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,11 +2015,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2013,14 +2031,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2037,7 +2055,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2053,7 +2071,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2070,7 +2088,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2086,7 +2104,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,11 +2114,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2119,7 +2137,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,14 +2147,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,14 +2180,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,7 +2196,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,14 +2246,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2251,7 +2269,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2284,7 +2302,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2312,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2327,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,14 +2361,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2360,11 +2378,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2376,14 +2394,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2393,14 +2411,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2409,28 +2427,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2442,31 +2460,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2475,28 +2493,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2508,28 +2526,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2541,66 +2559,165 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>147</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2777.6799999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>97</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>148</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>149</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>150</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>151</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>97</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>73</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>152</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>146</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>97</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>125</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2969.4000000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>154</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>155</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>156</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2834,10 +2951,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>19.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AUGRAM 1GM 14 TABS</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
@@ -317,6 +326,15 @@
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -381,6 +399,15 @@
   </si>
   <si>
     <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
   </si>
   <si>
     <t>SULBIN 750MG VIAL</t>
@@ -1180,7 +1207,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1190,11 +1217,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>20</v>
@@ -1206,14 +1233,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1230,7 +1257,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1263,7 +1290,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1279,7 +1306,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1289,14 +1316,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1305,14 +1332,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1329,7 +1356,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1345,7 +1372,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1355,14 +1382,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1371,14 +1398,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1428,7 +1455,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1461,7 +1488,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1477,7 +1504,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1487,11 +1514,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1503,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1543,7 +1570,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1560,7 +1587,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1576,7 +1603,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1586,14 +1613,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1602,14 +1629,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1626,7 +1653,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1642,7 +1669,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1652,14 +1679,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1668,14 +1695,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1689,7 +1716,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1701,14 +1728,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1718,11 +1745,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1741,7 +1768,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1758,7 +1785,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1774,7 +1801,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1807,7 +1834,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,14 +1844,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1833,14 +1860,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1873,7 +1900,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1890,7 +1917,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1906,7 +1933,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1939,17 +1966,17 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1972,21 +1999,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1998,28 +2025,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,14 +2075,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2071,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2104,7 +2131,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2279,11 +2306,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2302,7 +2329,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,11 +2339,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,7 +2388,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2378,11 +2405,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2411,11 +2438,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2477,11 +2504,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2526,28 +2553,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2559,31 +2586,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2592,28 +2619,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2625,28 +2652,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2658,66 +2685,165 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2969.4000000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>154</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>156</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>100</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>157</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>159</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>160</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>100</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>76</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>161</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>155</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>156</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>100</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>134</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3091.105</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>163</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>164</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>165</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2966,10 +3092,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -500,7 +500,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:58 PM</t>
+    <t>Saturday, 16 August, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -458,6 +458,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -500,7 +509,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 10:59 PM</t>
+    <t>Saturday, 16 August, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2659,7 +2668,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2725,7 +2734,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2758,7 +2767,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2768,11 +2777,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2801,49 +2810,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3091.105</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>163</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>164</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>158</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>100</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>134</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>165</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3116.105</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>166</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>167</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>168</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3107,10 +3149,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -281,6 +281,21 @@
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
+    <t>HAIRTONIC 60 CAPS.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>-95.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -380,6 +395,15 @@
     <t>ROSITOR 20MG 14 F.C.TAB</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SIDERAL ACTIVE 15 ORODISPERSIBLE STICKS</t>
   </si>
   <si>
@@ -509,7 +533,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:00 PM</t>
+    <t>Saturday, 16 August, 2025 11:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1909,7 +1933,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1943,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1959,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,14 +1976,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,7 +1992,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1985,11 +2009,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2001,7 +2025,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2014,15 +2038,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2034,28 +2058,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2067,28 +2091,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2100,14 +2124,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,14 +2141,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,14 +2174,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,7 +2190,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2183,14 +2207,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,11 +2306,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>40</v>
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,14 +2339,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,11 +2372,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2364,14 +2388,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,11 +2405,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,11 +2438,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,14 +2504,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,11 +2603,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,14 +2636,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,11 +2669,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2661,28 +2685,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2694,28 +2718,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2727,31 +2751,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2760,28 +2784,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2793,31 +2817,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2826,66 +2850,132 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>3116.105</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>170</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>171</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>105</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>76</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>172</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>166</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>167</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>168</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>105</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>142</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3101.0050000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>174</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>175</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>176</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3154,10 +3244,20 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -509,9 +521,6 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>شامبو مينك 700 مل</t>
   </si>
   <si>
@@ -533,7 +542,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:01 PM</t>
+    <t>Saturday, 16 August, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1570,7 +1579,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1580,11 +1589,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1596,14 +1605,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1613,11 +1622,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1629,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1646,14 +1655,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1686,7 +1695,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1752,7 +1761,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1768,7 +1777,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1778,11 +1787,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1794,14 +1803,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1811,11 +1820,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1827,14 +1836,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1910,14 +1919,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1926,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1943,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1983,7 +1992,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2025,7 +2034,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2042,11 +2051,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2058,7 +2067,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2071,15 +2080,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2091,28 +2100,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2124,28 +2133,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2223,7 +2232,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2339,11 +2348,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>40</v>
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2388,7 +2397,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2405,11 +2414,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2438,11 +2447,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2454,7 +2463,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2471,11 +2480,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2504,11 +2513,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2570,14 +2579,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2593,7 +2602,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2702,11 +2711,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2758,21 +2767,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2784,20 +2793,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2824,24 +2833,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>166</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2850,31 +2859,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2890,21 +2899,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2916,66 +2925,99 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3101.0050000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>174</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>175</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>55</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>109</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>146</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>176</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3134.0050000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>177</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>178</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>179</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3254,10 +3296,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:02 PM</t>
+    <t>Saturday, 16 August, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>-32.6700</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -542,7 +554,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:17 PM</t>
+    <t>Saturday, 16 August, 2025 11:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1447,7 +1459,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1464,7 +1476,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1473,14 +1485,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1530,7 +1542,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1563,7 +1575,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1612,7 +1624,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1622,11 +1634,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1638,14 +1650,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,11 +1667,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1671,14 +1683,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,14 +1700,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1704,14 +1716,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1728,7 +1740,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1744,7 +1756,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1794,7 +1806,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1810,7 +1822,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1820,11 +1832,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1853,11 +1865,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,11 +1931,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2025,7 +2037,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2067,7 +2079,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2084,11 +2096,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2100,7 +2112,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2113,15 +2125,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2133,28 +2145,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2166,28 +2178,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2216,14 +2228,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,14 +2261,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2265,7 +2277,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2282,14 +2294,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,14 +2327,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,14 +2360,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2371,7 +2383,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,11 +2393,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>40</v>
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2430,7 +2442,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2447,11 +2459,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2480,11 +2492,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2496,7 +2508,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2513,11 +2525,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2529,14 +2541,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2546,11 +2558,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2612,14 +2624,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2635,7 +2647,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2711,14 +2723,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2800,21 +2812,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2826,20 +2838,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2866,24 +2878,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2892,31 +2904,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2925,28 +2937,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2958,66 +2970,99 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3134.0050000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>177</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>178</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>179</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>59</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>113</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>150</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3101.335</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>181</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>182</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>183</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3301,10 +3346,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -506,6 +506,12 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>ZITHROKAN 200MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -554,7 +560,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:25 PM</t>
+    <t>Saturday, 16 August, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2845,13 +2851,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2859,7 +2865,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2888,11 +2894,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2904,14 +2910,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2921,14 +2927,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2944,7 +2950,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2954,14 +2960,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2987,11 +2993,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3010,7 +3016,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3020,49 +3026,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3101.335</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>181</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>59</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>113</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>150</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>182</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3163.335</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
         <v>183</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>184</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>185</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3351,10 +3390,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>95.0400</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>5:10</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>EXAMIDE 5MG 30 TABS.</t>
   </si>
   <si>
@@ -329,6 +338,18 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
     <t>KAST 10MG 10 F.C. TAB</t>
   </si>
   <si>
@@ -374,6 +395,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>OTOCORT EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -560,7 +590,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:26 PM</t>
+    <t>Saturday, 16 August, 2025 11:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1825,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1805,7 +1835,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1828,7 +1858,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1838,14 +1868,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1854,14 +1884,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1875,7 +1905,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1887,14 +1917,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1904,11 +1934,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1927,7 +1957,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1944,7 +1974,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1993,7 +2023,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2003,14 +2033,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2019,14 +2049,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2036,14 +2066,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2052,14 +2082,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2069,14 +2099,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2092,7 +2122,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2109,7 +2139,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2125,7 +2155,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2135,14 +2165,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2151,7 +2181,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2164,15 +2194,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2184,28 +2214,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2217,28 +2247,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2250,7 +2280,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2263,18 +2293,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2283,14 +2313,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2300,14 +2330,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2316,14 +2346,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2333,11 +2363,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2349,14 +2379,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2366,11 +2396,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2382,14 +2412,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2429,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2445,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,14 +2462,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2448,14 +2478,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,11 +2495,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2481,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2514,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2561,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,11 +2594,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2580,7 +2610,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2597,11 +2627,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2613,14 +2643,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,14 +2660,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2646,7 +2676,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2663,14 +2693,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2679,7 +2709,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2696,11 +2726,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2712,7 +2742,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2729,11 +2759,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2745,14 +2775,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2762,14 +2792,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2778,14 +2808,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2795,11 +2825,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2811,14 +2841,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2828,14 +2858,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2844,14 +2874,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2861,11 +2891,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2877,28 +2907,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2910,28 +2940,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2943,31 +2973,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2976,28 +3006,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3009,28 +3039,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3042,66 +3072,165 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3163.335</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>183</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>184</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>185</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>186</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>120</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>187</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>190</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>120</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>87</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>191</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>59</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>120</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>160</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3217.8150000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>193</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>194</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>195</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3395,10 +3524,25 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -590,7 +590,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:29 PM</t>
+    <t>Saturday, 16 August, 2025 11:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>DEPAKINE 200MG 40 GASTRORESISTANT TAB.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -218,6 +227,15 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DIGICOMAG 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
@@ -227,6 +245,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>DURICEF 125 MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
   </si>
   <si>
@@ -362,9 +389,6 @@
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -503,6 +527,15 @@
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
+    <t>TABBY CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -515,6 +548,9 @@
     <t>TOBRIN 0.3% EYE.OINT. 5 GM</t>
   </si>
   <si>
+    <t>TYMER 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -590,7 +626,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:31 PM</t>
+    <t>Saturday, 16 August, 2025 11:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1693,7 +1729,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1726,7 +1762,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1759,7 +1795,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1776,7 +1812,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1792,7 +1828,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1802,14 +1838,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1818,14 +1854,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1835,14 +1871,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1851,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1868,11 +1904,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1884,14 +1920,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1901,14 +1937,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1917,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1934,14 +1970,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1957,7 +1993,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1974,7 +2010,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1990,7 +2026,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2000,14 +2036,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2033,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2056,7 +2092,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2066,11 +2102,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2082,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2099,14 +2135,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2122,7 +2158,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2155,7 +2191,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2181,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2198,14 +2234,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2214,14 +2250,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2231,14 +2267,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2247,31 +2283,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2287,21 +2323,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2313,14 +2349,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2330,11 +2366,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2346,31 +2382,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2379,28 +2415,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2412,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2429,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2445,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2462,11 +2498,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2478,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,11 +2531,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2511,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2535,7 +2571,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2551,7 +2587,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2568,7 +2604,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2584,7 +2620,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,11 +2630,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2617,7 +2653,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,14 +2663,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2643,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,14 +2696,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2676,14 +2712,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2693,11 +2729,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2709,7 +2745,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2726,11 +2762,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2742,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2775,7 +2811,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2792,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2825,11 +2861,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2848,7 +2884,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2881,7 +2917,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2891,14 +2927,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2907,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2924,11 +2960,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2940,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2980,7 +3016,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2994,10 +3030,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3006,28 +3042,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3039,28 +3075,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3072,7 +3108,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3085,18 +3121,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3105,28 +3141,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3138,28 +3174,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3171,66 +3207,231 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>192</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3217.8150000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>193</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>128</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>194</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>17</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>128</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>185</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>198</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>128</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>199</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>202</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>128</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>96</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>203</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>59</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>128</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>168</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3394.0149999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>205</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>206</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>207</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3539,10 +3740,35 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -387,9 +396,6 @@
   </si>
   <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.0000</t>
   </si>
   <si>
     <t xml:space="preserve">MELASONOZ   SYRUP</t>
@@ -2026,7 +2032,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2052,14 +2058,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2073,7 +2079,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2085,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,11 +2108,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2125,7 +2131,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2142,7 +2148,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2191,7 +2197,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2207,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2217,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,14 +2240,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2290,7 +2296,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,11 +2306,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2340,7 +2346,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2366,11 +2372,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2382,7 +2388,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2395,15 +2401,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2415,24 +2421,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2455,21 +2461,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,7 +2586,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2597,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>40</v>
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,7 +2751,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2762,11 +2768,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2795,11 +2801,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2811,7 +2817,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2828,11 +2834,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,11 +2867,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,14 +2949,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2993,11 +2999,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3092,11 +3098,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3108,7 +3114,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3125,11 +3131,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3158,11 +3164,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3191,11 +3197,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3214,13 +3220,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3228,7 +3234,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3240,28 +3246,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3273,31 +3279,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3313,24 +3319,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3339,28 +3345,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3379,59 +3385,92 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3394.0149999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>205</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>59</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>130</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>170</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>206</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3439.0149999999999</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
         <v>207</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>208</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>209</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3765,10 +3804,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:33 PM</t>
+    <t>Saturday, 16 August, 2025 11:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -71,15 +86,9 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -152,6 +161,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -398,6 +419,15 @@
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MELASONOZ   SYRUP</t>
   </si>
   <si>
@@ -608,7 +638,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
   </si>
   <si>
     <t>شامبو مينك 700 مل</t>
@@ -623,16 +662,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 16 August, 2025 11:35 PM</t>
+    <t>Saturday, 16 August, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,7 +1408,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1405,7 +1441,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1415,14 +1451,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1431,14 +1467,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1448,14 +1484,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1464,14 +1500,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1488,7 +1524,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1504,7 +1540,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1514,14 +1550,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1530,14 +1566,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1554,7 +1590,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1563,14 +1599,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1580,14 +1616,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1620,7 +1656,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1636,7 +1672,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1646,14 +1682,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1662,14 +1698,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1679,11 +1715,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1695,14 +1731,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1712,14 +1748,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1728,14 +1764,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1768,7 +1804,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1778,11 +1814,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1794,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1811,14 +1847,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1827,14 +1863,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,11 +1880,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1860,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1877,14 +1913,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1893,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,14 +1946,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1926,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1950,7 +1986,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1966,7 +2002,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1976,7 +2012,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1999,7 +2035,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2009,14 +2045,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2025,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2042,11 +2078,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2058,14 +2094,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2082,7 +2118,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2098,7 +2134,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2112,10 +2148,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2124,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,11 +2177,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2157,14 +2193,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,14 +2210,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2190,14 +2226,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,14 +2243,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2223,14 +2259,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2240,14 +2276,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2256,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2273,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2289,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2306,14 +2342,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2322,14 +2358,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2339,14 +2375,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2362,7 +2398,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2379,7 +2415,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2395,7 +2431,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2405,14 +2441,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2421,28 +2457,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2454,28 +2490,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2487,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2520,31 +2556,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2553,28 +2589,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2586,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2619,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2636,11 +2672,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2652,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,11 +2705,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2685,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2738,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2718,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,11 +2804,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2784,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2817,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2834,14 +2870,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,11 +2903,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2883,7 +2919,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2900,11 +2936,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2916,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2933,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2949,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,14 +3002,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2982,7 +3018,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2999,11 +3035,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3015,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3032,14 +3068,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,14 +3101,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3098,11 +3134,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3114,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,11 +3167,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3147,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3164,14 +3200,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3180,14 +3216,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,11 +3233,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3213,14 +3249,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,11 +3266,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3246,28 +3282,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3279,28 +3315,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3312,31 +3348,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3345,28 +3381,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3378,28 +3414,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3411,66 +3447,198 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3439.0149999999999</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>207</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>208</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>209</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>22</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>140</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>211</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>213</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>140</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>214</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>216</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>51</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>140</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>106</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>66</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>140</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>180</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3712.7249999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>219</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>220</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>221</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3809,10 +3977,30 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-16_00-00.xlsx
+++ b/DaySale_2025-08-16_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 17 August, 2025 12:03 AM</t>
+    <t>Sunday, 17 August, 2025 12:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
